--- a/classification/droptc/bert-base-uncased/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/bert-base-uncased/unfreeze/24677315/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9914104342460632</v>
+        <v>0.9814168810844421</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9986180067062378</v>
+        <v>0.9874562621116638</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9986697435379028</v>
+        <v>0.9866847395896912</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9245094060897827</v>
+        <v>0.9860596060752869</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9802968502044678</v>
+        <v>0.9983376264572144</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9878612756729126</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.792394757270813</v>
+        <v>0.9966158270835876</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986017346382141</v>
+        <v>0.7536177635192871</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986627101898193</v>
+        <v>0.8880584239959717</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.998690664768219</v>
+        <v>0.9983428716659546</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9680993556976318</v>
+        <v>0.9982975125312805</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.99861741065979</v>
+        <v>0.9887958765029907</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9986661672592163</v>
+        <v>0.8768914341926575</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.9896738529205322</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9817076921463013</v>
+        <v>0.9977191090583801</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9986017346382141</v>
+        <v>0.6803668737411499</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9900622367858887</v>
+        <v>0.9984264373779297</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9895707368850708</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9982386827468872</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9986616373062134</v>
+        <v>0.9980284571647644</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9883335828781128</v>
+        <v>0.9983920454978943</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9903867840766907</v>
+        <v>0.9871429800987244</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.998688280582428</v>
+        <v>0.6159570217132568</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9865267872810364</v>
+        <v>0.9898198246955872</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.9984130859375</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9986650943756104</v>
+        <v>0.9982982277870178</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9986490607261658</v>
+        <v>0.9894174933433533</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9985865354537964</v>
+        <v>0.9980610013008118</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.893652617931366</v>
+        <v>0.9983265995979309</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.9970683455467224</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9986752867698669</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9986745119094849</v>
+        <v>0.5292328000068665</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9901502132415771</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9941082000732422</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9986104965209961</v>
+        <v>0.9862462282180786</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8876045942306519</v>
+        <v>0.8080721497535706</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.997154712677002</v>
+        <v>0.9981532692909241</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9984661340713501</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9986091256141663</v>
+        <v>0.9981910586357117</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9772778153419495</v>
+        <v>0.9982929825782776</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9254843592643738</v>
+        <v>0.9984182119369507</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9986530542373657</v>
+        <v>0.9983123540878296</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9964284300804138</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9985836744308472</v>
+        <v>0.9979252815246582</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9986644983291626</v>
+        <v>0.9981278777122498</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9986473917961121</v>
+        <v>0.9983906745910645</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9984466433525085</v>
+        <v>0.9773698449134827</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9869994521141052</v>
+        <v>0.9982453584671021</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9984517097473145</v>
+        <v>0.9981550574302673</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9981424808502197</v>
+        <v>0.9978906512260437</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9986345171928406</v>
+        <v>0.9980491399765015</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4987456202507019</v>
+        <v>0.9977273344993591</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.998625636100769</v>
+        <v>0.9871429800987244</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.978146493434906</v>
+        <v>0.9983667731285095</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9986369013786316</v>
+        <v>0.9871618151664734</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9983685612678528</v>
+        <v>0.9862157106399536</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9806370735168457</v>
+        <v>0.9841586351394653</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9986298084259033</v>
+        <v>0.9983794689178467</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.998068630695343</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9981790781021118</v>
+        <v>0.9898198246955872</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9968308806419373</v>
+        <v>0.9904631972312927</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.9868130087852478</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9985865354537964</v>
+        <v>0.9984027743339539</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9917140007019043</v>
+        <v>0.9983548521995544</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9983982443809509</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.8591330647468567</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9796128273010254</v>
+        <v>0.9850059151649475</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.987873375415802</v>
+        <v>0.9982603192329407</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9986357092857361</v>
+        <v>0.9984064698219299</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9986397624015808</v>
+        <v>0.9982888102531433</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9695037603378296</v>
+        <v>0.9736006259918213</v>
       </c>
     </row>
     <row r="73">
@@ -2471,14 +2471,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9986722469329834</v>
+        <v>0.9764699339866638</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.923475444316864</v>
+        <v>0.986436665058136</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9985998272895813</v>
+        <v>0.9005751609802246</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9986641407012939</v>
+        <v>0.9791491627693176</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9986695051193237</v>
+        <v>0.986509382724762</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9986868500709534</v>
+        <v>0.9983431100845337</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9984617233276367</v>
+        <v>0.9887463450431824</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.982466995716095</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9983834028244019</v>
+        <v>0.9876844882965088</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.815871000289917</v>
+        <v>0.9978843331336975</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.979302704334259</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7900745868682861</v>
+        <v>0.9949342608451843</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9909895658493042</v>
+        <v>0.7516818046569824</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9985974431037903</v>
+        <v>0.9982654452323914</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9675559997558594</v>
+        <v>0.8674925565719604</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9986080527305603</v>
+        <v>0.9980598092079163</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.998359739780426</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9830875992774963</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9986697435379028</v>
+        <v>0.9980664849281311</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9754255414009094</v>
+        <v>0.9982072114944458</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9986891150474548</v>
+        <v>0.997945249080658</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9986104965209961</v>
+        <v>0.9898198246955872</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9986215829849243</v>
+        <v>0.9983711838722229</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9842433929443359</v>
+        <v>0.9984365105628967</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9986220598220825</v>
+        <v>0.9980598092079163</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.8904911279678345</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9986080527305603</v>
+        <v>0.9980598092079163</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9984775185585022</v>
+        <v>0.9980364441871643</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
-        </is>
-      </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9445475339889526</v>
+        <v>0.7186039686203003</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9980353713035583</v>
+        <v>0.9878612756729126</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8710297346115112</v>
+        <v>0.9979010820388794</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9986726045608521</v>
+        <v>0.9862157106399536</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.998648464679718</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9980776309967041</v>
+        <v>0.9974675178527832</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9986481070518494</v>
+        <v>0.9864485859870911</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.986512303352356</v>
+        <v>0.9876031279563904</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9869994521141052</v>
+        <v>0.9945448637008667</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9604218602180481</v>
+        <v>0.9984062314033508</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9985087513923645</v>
+        <v>0.9981628060340881</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.9982894062995911</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9453259706497192</v>
+        <v>0.9970299005508423</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9055911898612976</v>
+        <v>0.9191635251045227</v>
       </c>
     </row>
     <row r="115">
@@ -3647,14 +3647,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.6531522870063782</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.998647153377533</v>
+        <v>0.9860596060752869</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9980201721191406</v>
+        <v>0.9983125925064087</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9135065078735352</v>
+        <v>0.9850059151649475</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9795984625816345</v>
+        <v>0.9894174933433533</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9986453652381897</v>
+        <v>0.9711605310440063</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9986233711242676</v>
+        <v>0.9983999133110046</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9891095161437988</v>
+        <v>0.9983054399490356</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9986530542373657</v>
+        <v>0.9746401906013489</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9986469149589539</v>
+        <v>0.9894098043441772</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9907627701759338</v>
+        <v>0.9720211625099182</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9558355808258057</v>
+        <v>0.9983299374580383</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.9981446266174316</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998494029045105</v>
+        <v>0.9889982342720032</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9859841465950012</v>
+        <v>0.9981011748313904</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9600968360900879</v>
+        <v>0.9980267882347107</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9739272594451904</v>
+        <v>0.9833869338035583</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9986773133277893</v>
+        <v>0.9982039928436279</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9987034797668457</v>
+        <v>0.9878612756729126</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.998521625995636</v>
+        <v>0.9879348278045654</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9986659288406372</v>
+        <v>0.9888535737991333</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9739272594451904</v>
+        <v>0.546542763710022</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9784029722213745</v>
+        <v>0.9983491897583008</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9985417127609253</v>
+        <v>0.9881437420845032</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9986786246299744</v>
+        <v>0.9960854053497314</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9902985692024231</v>
+        <v>0.972692608833313</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9986253976821899</v>
+        <v>0.9984248876571655</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9986799359321594</v>
+        <v>0.9867509007453918</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8851515054702759</v>
+        <v>0.9981046915054321</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9987009763717651</v>
+        <v>0.9980447292327881</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.990039050579071</v>
+        <v>0.9981814622879028</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9355720281600952</v>
+        <v>0.9976540207862854</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9917140007019043</v>
+        <v>0.9980593323707581</v>
       </c>
     </row>
     <row r="148">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9371896386146545</v>
+        <v>0.9867004752159119</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9865820407867432</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9882556200027466</v>
+        <v>0.9981903433799744</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9983618855476379</v>
+        <v>0.961806058883667</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9983894824981689</v>
+        <v>0.9983993172645569</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9986875653266907</v>
+        <v>0.9973581433296204</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8893365263938904</v>
+        <v>0.9858270287513733</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5673152208328247</v>
+        <v>0.9872778654098511</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9979622364044189</v>
+        <v>0.9982977509498596</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9986671209335327</v>
+        <v>0.996846616268158</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9983618855476379</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9799630045890808</v>
+        <v>0.9697471857070923</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9984263181686401</v>
+        <v>0.9983711838722229</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9985333681106567</v>
+        <v>0.9984027743339539</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9986791014671326</v>
+        <v>0.9983774423599243</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9986860156059265</v>
+        <v>0.9839130043983459</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.998584508895874</v>
+        <v>0.9612928032875061</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9876359105110168</v>
+        <v>0.9976944327354431</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9986675977706909</v>
+        <v>0.9982864260673523</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9986760020256042</v>
+        <v>0.9982864260673523</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9754893779754639</v>
+        <v>0.9980284571647644</v>
       </c>
     </row>
     <row r="169">
@@ -5159,14 +5159,14 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9986739158630371</v>
+        <v>0.934455931186676</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9817076921463013</v>
+        <v>0.9976765513420105</v>
       </c>
     </row>
     <row r="171">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8692193031311035</v>
+        <v>0.736857533454895</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9986433386802673</v>
+        <v>0.9183236956596375</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.600614607334137</v>
+        <v>0.9893619418144226</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9986922144889832</v>
+        <v>0.9983235001564026</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9981130361557007</v>
+        <v>0.9983890056610107</v>
       </c>
     </row>
     <row r="176">
@@ -5355,14 +5355,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9710644483566284</v>
+        <v>0.9879348278045654</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9985049962997437</v>
+        <v>0.8164918422698975</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9981338381767273</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9986726045608521</v>
+        <v>0.9301506280899048</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.988395094871521</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="181">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9985358715057373</v>
+        <v>0.9578601717948914</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9978274703025818</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9917923212051392</v>
+        <v>0.9982959628105164</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.9984381794929504</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.998648464679718</v>
+        <v>0.9714339375495911</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4460901319980621</v>
+        <v>0.9930264949798584</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9985257983207703</v>
+        <v>0.9983310103416443</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9986819624900818</v>
+        <v>0.9982878565788269</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.988848090171814</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9863972067832947</v>
+        <v>0.9727501273155212</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9985658526420593</v>
+        <v>0.9983510971069336</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9917433857917786</v>
+        <v>0.9983261227607727</v>
       </c>
     </row>
     <row r="193">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9986234903335571</v>
+        <v>0.9755017757415771</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.9980403780937195</v>
       </c>
     </row>
     <row r="195">
@@ -5887,14 +5887,14 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7718795537948608</v>
+        <v>0.9983609318733215</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9986981153488159</v>
+        <v>0.9981910586357117</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.99853515625</v>
+        <v>0.9695357084274292</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9986887574195862</v>
+        <v>0.9983630776405334</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9726170301437378</v>
+        <v>0.9700535535812378</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9986145496368408</v>
+        <v>0.9983331561088562</v>
       </c>
     </row>
     <row r="201">
@@ -6055,14 +6055,14 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.978762686252594</v>
+        <v>0.9955719709396362</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9986228942871094</v>
+        <v>0.9984117746353149</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9773485660552979</v>
+        <v>0.9981614947319031</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9754893779754639</v>
+        <v>0.9983185529708862</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9986740350723267</v>
+        <v>0.9982864260673523</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9782286286354065</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9620872139930725</v>
+        <v>0.8352157473564148</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.4449855983257294</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9986490607261658</v>
+        <v>0.9983661770820618</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9983023405075073</v>
+        <v>0.9894174933433533</v>
       </c>
     </row>
   </sheetData>
